--- a/dataset_v1/task_sheet_answers/SmallBalanceSheet/6_SmallBalanceSheet/6_SmallBalanceSheet_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/SmallBalanceSheet/6_SmallBalanceSheet/6_SmallBalanceSheet_gt1.xlsx
@@ -1,229 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\Finance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146D54AA-66BB-4C76-8740-3097463E5619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1EC1683D-5FBE-4242-B0AE-3FD397CB9EDE}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Other Assets</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed Assets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Liabilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long-term Liabilities</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liabilities &amp; Owner's Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner's Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt formatCode="0.00_);[Red]\(0.00\)" numFmtId="164"/>
+    <numFmt formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ " numFmtId="165"/>
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="166"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+  <fonts count="23">
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+      <family val="2"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="36"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color indexed="23"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="17"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="18"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="18"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="18"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="53"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="59"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="63"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="18"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color indexed="10"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color indexed="12"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="36"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="50"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="50"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="59"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="18"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -436,129 +386,195 @@
     </border>
   </borders>
   <cellStyleXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0"/>
+    <xf borderId="1" fillId="17" fontId="7" numFmtId="0"/>
+    <xf borderId="2" fillId="18" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="10" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="top"/>
-      <protection locked="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf borderId="1" fillId="11" fontId="14" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0"/>
+    <xf borderId="8" fillId="17" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{AC2D07DE-1EA0-485A-BEDC-2BAC373120F8}"/>
-    <cellStyle name="20% - Accent2 2" xfId="3" xr:uid="{6D0842EB-84FF-4F3A-8C3D-536DB9164F89}"/>
-    <cellStyle name="20% - Accent3 2" xfId="4" xr:uid="{ADCC299B-5700-4FEC-AB32-E722AD5E6C14}"/>
-    <cellStyle name="20% - Accent4 2" xfId="5" xr:uid="{3AEC9B31-20ED-467A-8126-D01C7D09A3C6}"/>
-    <cellStyle name="20% - Accent5 2" xfId="6" xr:uid="{A48F571A-8C42-42F9-8403-119DA9196BAB}"/>
-    <cellStyle name="20% - Accent6 2" xfId="7" xr:uid="{EF7E8F54-A247-4B03-8197-8DBA4C49F079}"/>
-    <cellStyle name="40% - Accent1 2" xfId="8" xr:uid="{3843BA14-8028-4BA8-9192-CA2FCD6B77B7}"/>
-    <cellStyle name="40% - Accent2 2" xfId="9" xr:uid="{0A7722FB-635A-47E0-8E5E-C7914C04A317}"/>
-    <cellStyle name="40% - Accent3 2" xfId="10" xr:uid="{A80CAF37-9544-47A6-99CA-48D4A218D9DA}"/>
-    <cellStyle name="40% - Accent4 2" xfId="11" xr:uid="{8060D586-F4E6-48D6-B6F8-07616D4DC53E}"/>
-    <cellStyle name="40% - Accent5 2" xfId="12" xr:uid="{12B906FB-D95C-4161-9273-9447FE81314D}"/>
-    <cellStyle name="40% - Accent6 2" xfId="13" xr:uid="{0F23C6B4-01F0-4655-A19D-08C3D90E6A17}"/>
-    <cellStyle name="60% - Accent1 2" xfId="14" xr:uid="{BA90E924-8D20-4712-BB3D-243037A83CEC}"/>
-    <cellStyle name="60% - Accent2 2" xfId="15" xr:uid="{0C86D680-22DC-44BA-9D0A-601A8553C645}"/>
-    <cellStyle name="60% - Accent3 2" xfId="16" xr:uid="{56DF120C-4FD4-418A-8878-64E061D72D69}"/>
-    <cellStyle name="60% - Accent4 2" xfId="17" xr:uid="{52F1094C-ED70-4003-9713-2FE3EE96FD8E}"/>
-    <cellStyle name="60% - Accent5 2" xfId="18" xr:uid="{6F002171-A436-42B4-A085-D6E2CC5B2982}"/>
-    <cellStyle name="60% - Accent6 2" xfId="19" xr:uid="{3C5C617F-6DF5-40E1-91E6-3730A3432231}"/>
-    <cellStyle name="Accent1 2" xfId="20" xr:uid="{B21137DC-DF1E-47CD-99AA-39D8AC7A99CB}"/>
-    <cellStyle name="Accent2 2" xfId="21" xr:uid="{2F4EE57F-1866-40AF-BDB3-525987AC5276}"/>
-    <cellStyle name="Accent3 2" xfId="22" xr:uid="{BD382F26-4DB1-4079-AF65-1E2372E93383}"/>
-    <cellStyle name="Accent4 2" xfId="23" xr:uid="{5385B83B-587A-47A7-AE96-1271EDD4999A}"/>
-    <cellStyle name="Accent5 2" xfId="24" xr:uid="{5C045C3A-17FB-463F-8277-5CC9099F6ED2}"/>
-    <cellStyle name="Accent6 2" xfId="25" xr:uid="{45C1703C-E100-4A16-9E9C-BC7D058E5C66}"/>
-    <cellStyle name="Bad 2" xfId="26" xr:uid="{BA05DC07-3CBF-4E84-9760-CFC0FA341825}"/>
-    <cellStyle name="Calculation 2" xfId="27" xr:uid="{1418AAA7-64C6-48E5-BCE9-90D404AC3DE8}"/>
-    <cellStyle name="Check Cell 2" xfId="28" xr:uid="{018389E1-FC0F-4799-A5E6-FF60553BCCB9}"/>
-    <cellStyle name="Currency 2" xfId="29" xr:uid="{A8D54F55-5ED1-4BD6-811E-CF8F9D26085A}"/>
-    <cellStyle name="Explanatory Text 2" xfId="30" xr:uid="{50CFC24C-342D-44D5-BC1A-39180D4C8620}"/>
-    <cellStyle name="Good 2" xfId="31" xr:uid="{D1FA2513-933F-48AE-A0D3-F3906B2403B9}"/>
-    <cellStyle name="Heading 1 2" xfId="32" xr:uid="{1369936A-B514-475C-AC60-63F323D207A7}"/>
-    <cellStyle name="Heading 2 2" xfId="33" xr:uid="{F6BE0A1E-3A11-448E-95D0-26CEA653C0B0}"/>
-    <cellStyle name="Heading 3 2" xfId="34" xr:uid="{FBA8D26E-1DD7-4DAD-BBA1-CD874A0D0E8A}"/>
-    <cellStyle name="Heading 4 2" xfId="35" xr:uid="{33CAC296-4BFC-4731-95C6-CC176766E8E4}"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="37" xr:uid="{F169CF41-C315-4BB5-A213-11F42252EC52}"/>
-    <cellStyle name="Linked Cell 2" xfId="38" xr:uid="{1EB83E17-FB5F-4457-B189-DDE3B3E6092A}"/>
-    <cellStyle name="Neutral 2" xfId="39" xr:uid="{354740BF-767A-4A7A-A1E1-B0A37EECD94C}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="46" xr:uid="{93EDC6EE-DD86-46B2-BFBC-1A49E62D15D9}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{45AF4D72-8FBD-470F-A320-6694D5F32062}"/>
-    <cellStyle name="Note 2" xfId="40" xr:uid="{2E65C72E-FB19-4603-8F73-D022269E4D3C}"/>
-    <cellStyle name="Output 2" xfId="41" xr:uid="{E842B81B-B6A5-4B93-9C20-7362CA502846}"/>
-    <cellStyle name="Percent 2" xfId="42" xr:uid="{A1CBB2EC-E2B3-4762-8934-D173F52871E9}"/>
-    <cellStyle name="Title 2" xfId="43" xr:uid="{81F5CEEE-6B54-4B71-B36B-EBB7C75B1ED2}"/>
-    <cellStyle name="Total 2" xfId="44" xr:uid="{CF5942B3-BAD2-4E9A-8A19-C3DF6A948D3C}"/>
-    <cellStyle name="Warning Text 2" xfId="45" xr:uid="{A13D3A19-C431-4D49-BC81-38DB3143F6F7}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="2"/>
+    <cellStyle name="20% - Accent2 2" xfId="3"/>
+    <cellStyle name="20% - Accent3 2" xfId="4"/>
+    <cellStyle name="20% - Accent4 2" xfId="5"/>
+    <cellStyle name="20% - Accent5 2" xfId="6"/>
+    <cellStyle name="20% - Accent6 2" xfId="7"/>
+    <cellStyle name="40% - Accent1 2" xfId="8"/>
+    <cellStyle name="40% - Accent2 2" xfId="9"/>
+    <cellStyle name="40% - Accent3 2" xfId="10"/>
+    <cellStyle name="40% - Accent4 2" xfId="11"/>
+    <cellStyle name="40% - Accent5 2" xfId="12"/>
+    <cellStyle name="40% - Accent6 2" xfId="13"/>
+    <cellStyle name="60% - Accent1 2" xfId="14"/>
+    <cellStyle name="60% - Accent2 2" xfId="15"/>
+    <cellStyle name="60% - Accent3 2" xfId="16"/>
+    <cellStyle name="60% - Accent4 2" xfId="17"/>
+    <cellStyle name="60% - Accent5 2" xfId="18"/>
+    <cellStyle name="60% - Accent6 2" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="21"/>
+    <cellStyle name="Accent3 2" xfId="22"/>
+    <cellStyle name="Accent4 2" xfId="23"/>
+    <cellStyle name="Accent5 2" xfId="24"/>
+    <cellStyle name="Accent6 2" xfId="25"/>
+    <cellStyle name="Bad 2" xfId="26"/>
+    <cellStyle name="Calculation 2" xfId="27"/>
+    <cellStyle name="Check Cell 2" xfId="28"/>
+    <cellStyle name="Currency 2" xfId="29"/>
+    <cellStyle name="Explanatory Text 2" xfId="30"/>
+    <cellStyle name="Good 2" xfId="31"/>
+    <cellStyle name="Heading 1 2" xfId="32"/>
+    <cellStyle name="Heading 2 2" xfId="33"/>
+    <cellStyle name="Heading 3 2" xfId="34"/>
+    <cellStyle name="Heading 4 2" xfId="35"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="36"/>
+    <cellStyle name="Input 2" xfId="37"/>
+    <cellStyle name="Linked Cell 2" xfId="38"/>
+    <cellStyle name="Neutral 2" xfId="39"/>
+    <cellStyle name="Note 2" xfId="40"/>
+    <cellStyle name="Output 2" xfId="41"/>
+    <cellStyle name="Percent 2" xfId="42"/>
+    <cellStyle name="Title 2" xfId="43"/>
+    <cellStyle name="Total 2" xfId="44"/>
+    <cellStyle name="Warning Text 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="46"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -858,207 +874,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE9EE97-77AB-42CC-8494-6B264004E157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="12.88671875"/>
+    <col customWidth="1" max="2" min="2" style="3" width="18.109375"/>
+    <col customWidth="1" max="3" min="3" style="3" width="15.21875"/>
+    <col customWidth="1" max="4" min="4" style="3" width="17.21875"/>
+    <col customWidth="1" max="5" min="5" style="3" width="11.44140625"/>
+    <col customWidth="1" max="6" min="6" style="3" width="14.33203125"/>
+    <col customWidth="1" max="7" min="7" style="3" width="21.44140625"/>
+    <col customWidth="1" max="8" min="8" style="3" width="15.5546875"/>
+    <col customWidth="1" max="9" min="9" style="3" width="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Current Assets</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Fixed Assets</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Other Assets</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Current Liabilities</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Long-term Liabilities</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Owner's Equity</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Liabilities &amp; Owner's Equity</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4" t="n">
         <v>185682</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4" t="n">
         <v>45500</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4" t="n">
         <v>3580</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4" t="n">
         <v>6762</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4" t="n">
         <v>172474</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4" t="n">
         <v>204527</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4" t="n">
         <v>43243</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4" t="n">
         <v>3520</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4" t="n">
         <v>7653</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4" t="n">
         <v>196318</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4" t="n">
         <v>219289</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4" t="n">
         <v>40840</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4" t="n">
         <v>3726</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4" t="n">
         <v>8258</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4" t="n">
         <v>40000</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4" t="n">
         <v>220797</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4" t="n">
         <v>248718</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4" t="n">
         <v>38419</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4" t="n">
         <v>4011</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4" t="n">
         <v>9133</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4" t="n">
         <v>40000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4" t="n">
         <v>239576</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4" t="n">
         <v>264792</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4" t="n">
         <v>35854</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4" t="n">
         <v>4030</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4" t="n">
         <v>9839</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4" t="n">
         <v>253852</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4" t="n">
         <v>282148</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4" t="n">
         <v>33181</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4" t="n">
         <v>4088</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4" t="n">
         <v>10585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4" t="n">
         <v>282688</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8">
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+    <row r="9">
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    <row r="10">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>